--- a/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
+++ b/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaby\Documents\UVG\5A2S\tesis\git-tesis\Inteligencia Computacional\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4397D8AD-9296-481C-AC30-93C5127C8DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50844112-2FB4-44F8-A6AF-374FA4BD757E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -607,6 +607,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,39 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="H3" sqref="H3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1111,37 +1111,37 @@
         <v>26</v>
       </c>
       <c r="H2" s="13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="31"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="36" t="s">
+      <c r="V2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="34"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="29"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="40"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="22" t="s">
         <v>37</v>
@@ -1156,57 +1156,57 @@
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30" t="s">
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30" t="s">
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
       <c r="AE3" s="20" t="s">
         <v>32</v>
       </c>
@@ -1219,12 +1219,12 @@
       <c r="AL3" s="19"/>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -2029,6 +2029,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
@@ -2038,12 +2044,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
+++ b/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaby\Documents\UVG\5A2S\tesis\git-tesis\Inteligencia Computacional\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50844112-2FB4-44F8-A6AF-374FA4BD757E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9300E9-D91B-421B-B040-30F8E0706D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,8 +1063,8 @@
   </sheetPr>
   <dimension ref="A1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:L3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1111,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="H2" s="13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="29" t="s">
@@ -1925,10 +1925,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G26" s="8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" hidden="1" x14ac:dyDescent="0.3">

--- a/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
+++ b/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaby\Documents\UVG\5A2S\tesis\git-tesis\Inteligencia Computacional\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9300E9-D91B-421B-B040-30F8E0706D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2DFB3-C732-4995-9709-570B45790968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +380,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,7 +533,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -607,6 +613,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -640,17 +658,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1063,8 +1075,8 @@
   </sheetPr>
   <dimension ref="A1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1114,34 +1126,34 @@
         <v>18</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="31"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="34"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="38" t="s">
+      <c r="AA2" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="40"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="29"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="22" t="s">
         <v>37</v>
@@ -1156,57 +1168,57 @@
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41" t="s">
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41" t="s">
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41" t="s">
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
       <c r="AE3" s="20" t="s">
         <v>32</v>
       </c>
@@ -1219,12 +1231,12 @@
       <c r="AL3" s="19"/>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="36"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1626,7 +1638,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7">
@@ -1641,7 +1653,7 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1665,7 +1677,7 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1674,7 +1686,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="7">
@@ -1689,7 +1701,7 @@
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1698,7 +1710,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="7">
@@ -1713,7 +1725,7 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1722,7 +1734,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="7">
@@ -1737,7 +1749,7 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="43">
         <v>0.1</v>
       </c>
     </row>
@@ -1746,7 +1758,7 @@
         <f>A18+1</f>
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="42" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="7">
@@ -1761,7 +1773,7 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1785,7 +1797,7 @@
       <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="43">
         <v>1</v>
       </c>
     </row>
@@ -1794,7 +1806,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="42" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="7">
@@ -1809,7 +1821,7 @@
       <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="43">
         <v>0</v>
       </c>
     </row>
@@ -1928,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="G26" s="8">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
@@ -2029,12 +2041,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:P3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
@@ -2044,6 +2050,12 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
+++ b/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaby\Documents\UVG\5A2S\tesis\git-tesis\Inteligencia Computacional\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C2DFB3-C732-4995-9709-570B45790968}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B12F5-E4C8-455F-A353-4A421909FF1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,6 +613,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,44 +664,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1075,8 +1078,8 @@
   </sheetPr>
   <dimension ref="A1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1123,37 +1126,37 @@
         <v>26</v>
       </c>
       <c r="H2" s="13">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="36" t="s">
+      <c r="V2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="27" t="s">
+      <c r="AA2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="29"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="42"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="22" t="s">
         <v>37</v>
@@ -1168,57 +1171,57 @@
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30" t="s">
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30" t="s">
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30" t="s">
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
       <c r="AE3" s="20" t="s">
         <v>32</v>
       </c>
@@ -1231,12 +1234,12 @@
       <c r="AL3" s="19"/>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1638,7 +1641,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7">
@@ -1653,7 +1656,7 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="43">
+      <c r="G14" s="28">
         <v>0</v>
       </c>
     </row>
@@ -1677,7 +1680,7 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="43">
+      <c r="G15" s="28">
         <v>1</v>
       </c>
     </row>
@@ -1686,7 +1689,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="7">
@@ -1701,7 +1704,7 @@
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="43">
+      <c r="G16" s="28">
         <v>0</v>
       </c>
     </row>
@@ -1710,7 +1713,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="7">
@@ -1720,13 +1723,13 @@
         <v>4</v>
       </c>
       <c r="E17" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="43">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G17" s="28">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1734,7 +1737,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="7">
@@ -1749,7 +1752,7 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="28">
         <v>0.1</v>
       </c>
     </row>
@@ -1758,7 +1761,7 @@
         <f>A18+1</f>
         <v>15</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="7">
@@ -1773,7 +1776,7 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="43">
+      <c r="G19" s="28">
         <v>0</v>
       </c>
     </row>
@@ -1797,7 +1800,7 @@
       <c r="F20" s="7">
         <v>1</v>
       </c>
-      <c r="G20" s="43">
+      <c r="G20" s="28">
         <v>1</v>
       </c>
     </row>
@@ -1806,7 +1809,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="7">
@@ -1821,7 +1824,7 @@
       <c r="F21" s="7">
         <v>0</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="28">
         <v>0</v>
       </c>
     </row>
@@ -2041,6 +2044,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
@@ -2050,12 +2059,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
+++ b/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaby\Documents\UVG\5A2S\tesis\git-tesis\Inteligencia Computacional\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797B12F5-E4C8-455F-A353-4A421909FF1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D714CF-8795-4865-8078-77616C406B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,7 +341,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +386,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +539,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -619,6 +625,21 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,19 +673,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1078,8 +1087,8 @@
   </sheetPr>
   <dimension ref="A1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1126,37 +1135,37 @@
         <v>26</v>
       </c>
       <c r="H2" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="33"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="38"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="36"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="41"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="42"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="32"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="22" t="s">
         <v>37</v>
@@ -1171,57 +1180,57 @@
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43" t="s">
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43" t="s">
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43" t="s">
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="33"/>
+      <c r="Z3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
       <c r="AE3" s="20" t="s">
         <v>32</v>
       </c>
@@ -1234,12 +1243,12 @@
       <c r="AL3" s="19"/>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1641,7 +1650,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="45" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7">
@@ -1689,7 +1698,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="7">
@@ -1713,7 +1722,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="29" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="7">
@@ -1737,7 +1746,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="7">
@@ -1750,10 +1759,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G18" s="28">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1761,7 +1770,7 @@
         <f>A18+1</f>
         <v>15</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="7">
@@ -1771,13 +1780,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1819,10 +1828,10 @@
         <v>1</v>
       </c>
       <c r="E21" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F21" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="28">
         <v>0</v>
@@ -2044,12 +2053,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:P3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
@@ -2059,6 +2062,12 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">

--- a/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
+++ b/Inteligencia Computacional/Documentos/Cronograma-tesis-bonito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaby\Documents\UVG\5A2S\tesis\git-tesis\Inteligencia Computacional\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaby\Documents\UVG\Tesis\Inteligencia-Computacional-y-Robotica-Swarm\Inteligencia Computacional\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D714CF-8795-4865-8078-77616C406B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A03595-B238-4D49-9DE6-8195F24BEC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Activity 23</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Aprender curso de Robótica 1</t>
+  </si>
+  <si>
+    <t>OCTUBRE</t>
+  </si>
+  <si>
+    <t>NOVIEMBRE</t>
   </si>
 </sst>
 </file>
@@ -628,6 +634,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -639,42 +681,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1087,8 +1093,8 @@
   </sheetPr>
   <dimension ref="A1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:L3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1108,7 +1114,7 @@
     <col min="27" max="27" width="4" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="3.75" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="3.625" customWidth="1"/>
+    <col min="31" max="31" width="4.5" customWidth="1"/>
     <col min="32" max="32" width="3.875" customWidth="1"/>
     <col min="33" max="37" width="4" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="3.75" bestFit="1" customWidth="1"/>
@@ -1138,34 +1144,34 @@
         <v>25</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="38"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="36" t="s">
+      <c r="Q2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="38"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="41"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38"/>
       <c r="Z2" s="17"/>
-      <c r="AA2" s="30" t="s">
+      <c r="AA2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="32"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="44"/>
       <c r="AE2" s="18"/>
       <c r="AF2" s="22" t="s">
         <v>37</v>
@@ -1180,75 +1186,79 @@
       <c r="AP2" s="23"/>
     </row>
     <row r="3" spans="1:67" s="10" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="E3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33" t="s">
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33" t="s">
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33" t="s">
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
       <c r="AE3" s="20" t="s">
         <v>32</v>
       </c>
       <c r="AF3" s="20"/>
       <c r="AG3" s="20"/>
       <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
+      <c r="AI3" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
-      <c r="AL3" s="19"/>
+      <c r="AN3" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1650,7 +1660,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7">
@@ -1660,13 +1670,13 @@
         <v>3</v>
       </c>
       <c r="E14" s="7">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:67" ht="17.25" x14ac:dyDescent="0.3">
@@ -1698,7 +1708,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="7">
@@ -1759,10 +1769,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" s="28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -1828,13 +1838,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F21" s="7">
         <v>1</v>
       </c>
       <c r="G21" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
@@ -2053,6 +2063,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="Q3:U3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="M3:P3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
@@ -2062,12 +2078,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="M3:P3"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">
